--- a/conven_control/optimized_result.xlsx
+++ b/conven_control/optimized_result.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,15 +476,30 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>dx</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>dy</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>dz</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
           <t>x_opt_stiffness</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>y_opt_stiffness</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>z_opt_stiffness</t>
         </is>
@@ -495,41 +510,50 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-44.41</v>
+        <v>6.922</v>
       </c>
       <c r="C2" t="n">
-        <v>87.23099999999999</v>
+        <v>41.447</v>
       </c>
       <c r="D2" t="n">
-        <v>21.687</v>
+        <v>121.517</v>
       </c>
       <c r="E2" t="n">
-        <v>81.32599999999999</v>
+        <v>8.845000000000001</v>
       </c>
       <c r="F2" t="n">
-        <v>137.206</v>
+        <v>-73.13200000000001</v>
       </c>
       <c r="G2" t="n">
-        <v>-109.126</v>
+        <v>-2.614</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
           <t>[[ 0.65  ]
- [-0.35  ]
- [-0.278 ]
- [ 0.    ]
- [ 1.5708]
- [-0.    ]]</t>
+ [ 0.1   ]
+ [-0.278 ]
+ [ 0.    ]
+ [ 1.5708]
+ [ 0.    ]]</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>2.334</v>
+        <v>2.534</v>
       </c>
       <c r="J2" t="n">
-        <v>4.734</v>
+        <v>0.88</v>
       </c>
       <c r="K2" t="n">
-        <v>6.271</v>
+        <v>3.465</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1.811</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.083</v>
+      </c>
+      <c r="N2" t="n">
+        <v>1.789</v>
       </c>
     </row>
     <row r="3">
@@ -537,41 +561,50 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-39.256</v>
+        <v>-39.101</v>
       </c>
       <c r="C3" t="n">
-        <v>49.879</v>
+        <v>45.998</v>
       </c>
       <c r="D3" t="n">
-        <v>100.663</v>
+        <v>107.786</v>
       </c>
       <c r="E3" t="n">
-        <v>101.904</v>
+        <v>-28.801</v>
       </c>
       <c r="F3" t="n">
-        <v>86.065</v>
+        <v>-66.661</v>
       </c>
       <c r="G3" t="n">
-        <v>-151.576</v>
+        <v>12.289</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
           <t>[[ 0.65  ]
- [-0.2   ]
- [-0.278 ]
- [ 0.    ]
- [ 1.5708]
- [ 0.0002]]</t>
+ [-0.35  ]
+ [-0.278 ]
+ [ 0.    ]
+ [ 1.5708]
+ [ 0.    ]]</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>2.067</v>
+        <v>2.609</v>
       </c>
       <c r="J3" t="n">
-        <v>5.239</v>
+        <v>-0.917</v>
       </c>
       <c r="K3" t="n">
-        <v>5.041</v>
+        <v>4.495</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1.735</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2.048</v>
+      </c>
+      <c r="N3" t="n">
+        <v>1.756</v>
       </c>
     </row>
     <row r="4">
@@ -579,41 +612,50 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-28.094</v>
+        <v>-24.175</v>
       </c>
       <c r="C4" t="n">
-        <v>155.651</v>
+        <v>42.324</v>
       </c>
       <c r="D4" t="n">
-        <v>-107.188</v>
+        <v>118.675</v>
       </c>
       <c r="E4" t="n">
-        <v>264.247</v>
+        <v>-9.818</v>
       </c>
       <c r="F4" t="n">
-        <v>-76.105</v>
+        <v>-71.221</v>
       </c>
       <c r="G4" t="n">
-        <v>131.267</v>
+        <v>3.109</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
           <t>[[ 0.65  ]
- [-0.05  ]
- [-0.278 ]
- [ 0.    ]
- [ 1.5708]
- [ 0.0005]]</t>
+ [-0.2   ]
+ [-0.278 ]
+ [ 0.    ]
+ [ 1.5708]
+ [ 0.    ]]</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>3.928</v>
+        <v>2.581</v>
       </c>
       <c r="J4" t="n">
-        <v>5.193</v>
+        <v>-0.281</v>
       </c>
       <c r="K4" t="n">
-        <v>-2.537</v>
+        <v>3.625</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1.735</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.427</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1.755</v>
       </c>
     </row>
     <row r="5">
@@ -621,41 +663,50 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-7.274</v>
+        <v>-5.426</v>
       </c>
       <c r="C5" t="n">
-        <v>122.599</v>
+        <v>41.248</v>
       </c>
       <c r="D5" t="n">
-        <v>-47.831</v>
+        <v>122.04</v>
       </c>
       <c r="E5" t="n">
-        <v>-238.583</v>
+        <v>11.627</v>
       </c>
       <c r="F5" t="n">
-        <v>138.025</v>
+        <v>-73.548</v>
       </c>
       <c r="G5" t="n">
-        <v>-56.264</v>
+        <v>-3.392</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
           <t>[[ 0.65  ]
- [ 0.1   ]
- [-0.278 ]
- [ 0.    ]
- [ 1.5708]
- [ 0.0007]]</t>
+ [-0.05  ]
+ [-0.278 ]
+ [ 0.    ]
+ [ 1.5708]
+ [ 0.    ]]</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>4.557</v>
+        <v>2.602</v>
       </c>
       <c r="J5" t="n">
-        <v>3.418</v>
+        <v>0.476</v>
       </c>
       <c r="K5" t="n">
-        <v>5.762</v>
+        <v>3.37</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1.748</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N5" t="n">
+        <v>2.019</v>
       </c>
     </row>
     <row r="6">
@@ -663,41 +714,50 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>5.202</v>
+        <v>6.922</v>
       </c>
       <c r="C6" t="n">
-        <v>116.379</v>
+        <v>41.447</v>
       </c>
       <c r="D6" t="n">
-        <v>-36.059</v>
+        <v>121.517</v>
       </c>
       <c r="E6" t="n">
-        <v>-245.994</v>
+        <v>8.845000000000001</v>
       </c>
       <c r="F6" t="n">
-        <v>138.343</v>
+        <v>-73.13200000000001</v>
       </c>
       <c r="G6" t="n">
-        <v>-65.34399999999999</v>
+        <v>-2.614</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
           <t>[[ 0.65  ]
- [ 0.25  ]
- [-0.278 ]
- [ 0.    ]
- [ 1.5708]
- [ 0.0007]]</t>
+ [ 0.1   ]
+ [-0.278 ]
+ [ 0.    ]
+ [ 1.5708]
+ [ 0.    ]]</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>4.767</v>
+        <v>2.534</v>
       </c>
       <c r="J6" t="n">
-        <v>3.507</v>
+        <v>0.88</v>
       </c>
       <c r="K6" t="n">
-        <v>5.359</v>
+        <v>3.465</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.811</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.083</v>
+      </c>
+      <c r="N6" t="n">
+        <v>1.789</v>
       </c>
     </row>
     <row r="7">
@@ -705,41 +765,50 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-15.335</v>
+        <v>15.273</v>
       </c>
       <c r="C7" t="n">
-        <v>88.57299999999999</v>
+        <v>44.186</v>
       </c>
       <c r="D7" t="n">
-        <v>11.542</v>
+        <v>117.337</v>
       </c>
       <c r="E7" t="n">
-        <v>98.48399999999999</v>
+        <v>-5.562</v>
       </c>
       <c r="F7" t="n">
-        <v>-98.02800000000001</v>
+        <v>-74.744</v>
       </c>
       <c r="G7" t="n">
-        <v>-79.004</v>
+        <v>1.76</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>[[ 0.8   ]
- [-0.35  ]
- [-0.278 ]
- [ 0.    ]
- [ 1.5708]
- [-0.    ]]</t>
+          <t>[[ 0.65  ]
+ [ 0.25  ]
+ [-0.278 ]
+ [ 0.    ]
+ [ 1.5708]
+ [ 0.    ]]</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>2.108</v>
+        <v>2.479</v>
       </c>
       <c r="J7" t="n">
-        <v>2.758</v>
+        <v>1.06</v>
       </c>
       <c r="K7" t="n">
-        <v>1.619</v>
+        <v>3.772</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.806</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="N7" t="n">
+        <v>1.597</v>
       </c>
     </row>
     <row r="8">
@@ -747,41 +816,50 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-6.461</v>
+        <v>-29.847</v>
       </c>
       <c r="C8" t="n">
-        <v>85.42700000000001</v>
+        <v>55.402</v>
       </c>
       <c r="D8" t="n">
-        <v>17.373</v>
+        <v>84.955</v>
       </c>
       <c r="E8" t="n">
-        <v>-255.909</v>
+        <v>-16.801</v>
       </c>
       <c r="F8" t="n">
-        <v>-111.246</v>
+        <v>-51.58</v>
       </c>
       <c r="G8" t="n">
-        <v>-73.056</v>
+        <v>10.629</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
           <t>[[ 0.8   ]
- [-0.2   ]
- [-0.278 ]
- [ 0.    ]
- [ 1.5708]
- [ 0.0002]]</t>
+ [-0.35  ]
+ [-0.278 ]
+ [ 0.    ]
+ [ 1.5708]
+ [ 0.    ]]</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>6.69</v>
+        <v>3.323</v>
       </c>
       <c r="J8" t="n">
-        <v>0.146</v>
+        <v>-0.306</v>
       </c>
       <c r="K8" t="n">
-        <v>3.405</v>
+        <v>7.041</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="N8" t="n">
+        <v>1.282</v>
       </c>
     </row>
     <row r="9">
@@ -789,41 +867,50 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>3.378</v>
+        <v>-19.314</v>
       </c>
       <c r="C9" t="n">
-        <v>94.089</v>
+        <v>51.339</v>
       </c>
       <c r="D9" t="n">
-        <v>0.519</v>
+        <v>94.45</v>
       </c>
       <c r="E9" t="n">
-        <v>-78.755</v>
+        <v>-9.262</v>
       </c>
       <c r="F9" t="n">
-        <v>123.715</v>
+        <v>-56.137</v>
       </c>
       <c r="G9" t="n">
-        <v>99.83499999999999</v>
+        <v>5.193</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
           <t>[[ 0.8   ]
- [-0.05  ]
- [-0.278 ]
- [ 0.    ]
- [ 1.5708]
- [ 0.0005]]</t>
+ [-0.2   ]
+ [-0.278 ]
+ [ 0.    ]
+ [ 1.5708]
+ [ 0.    ]]</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>3.788</v>
+        <v>3.265</v>
       </c>
       <c r="J9" t="n">
-        <v>2.694</v>
+        <v>0.077</v>
       </c>
       <c r="K9" t="n">
-        <v>6.597</v>
+        <v>6.152</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.737</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.744</v>
+      </c>
+      <c r="N9" t="n">
+        <v>1.164</v>
       </c>
     </row>
     <row r="10">
@@ -831,41 +918,50 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-9.41</v>
+        <v>-7.564</v>
       </c>
       <c r="C10" t="n">
-        <v>100.876</v>
+        <v>49.732</v>
       </c>
       <c r="D10" t="n">
-        <v>-8.044</v>
+        <v>98.777</v>
       </c>
       <c r="E10" t="n">
-        <v>-267.192</v>
+        <v>-1.592</v>
       </c>
       <c r="F10" t="n">
-        <v>123.664</v>
+        <v>-58.481</v>
       </c>
       <c r="G10" t="n">
-        <v>-90.496</v>
+        <v>0.782</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
           <t>[[ 0.8   ]
- [ 0.1   ]
- [-0.278 ]
- [ 0.    ]
- [ 1.5708]
- [ 0.0007]]</t>
+ [-0.05  ]
+ [-0.278 ]
+ [ 0.    ]
+ [ 1.5708]
+ [ 0.    ]]</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>4.051</v>
+        <v>3.202</v>
       </c>
       <c r="J10" t="n">
-        <v>3.675</v>
+        <v>0.5629999999999999</v>
       </c>
       <c r="K10" t="n">
-        <v>4.59</v>
+        <v>5.757</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.758</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.753</v>
+      </c>
+      <c r="N10" t="n">
+        <v>1.133</v>
       </c>
     </row>
     <row r="11">
@@ -873,41 +969,50 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.13</v>
+        <v>3.42</v>
       </c>
       <c r="C11" t="n">
-        <v>106.354</v>
+        <v>50.184</v>
       </c>
       <c r="D11" t="n">
-        <v>-18.364</v>
+        <v>98.273</v>
       </c>
       <c r="E11" t="n">
-        <v>-263.934</v>
+        <v>-0.421</v>
       </c>
       <c r="F11" t="n">
-        <v>112.132</v>
+        <v>-59.078</v>
       </c>
       <c r="G11" t="n">
-        <v>-85.539</v>
+        <v>0.184</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
           <t>[[ 0.8   ]
- [ 0.25  ]
- [-0.278 ]
- [ 0.    ]
- [ 1.5708]
- [ 0.0007]]</t>
+ [ 0.1   ]
+ [-0.278 ]
+ [ 0.    ]
+ [ 1.5708]
+ [ 0.    ]]</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>4.406</v>
+        <v>3.099</v>
       </c>
       <c r="J11" t="n">
-        <v>3.316</v>
+        <v>0.998</v>
       </c>
       <c r="K11" t="n">
-        <v>4.772</v>
+        <v>5.828</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1.759</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2.326</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.945</v>
       </c>
     </row>
     <row r="12">
@@ -915,41 +1020,50 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>-30.273</v>
+        <v>12.96</v>
       </c>
       <c r="C12" t="n">
-        <v>75.298</v>
+        <v>52.911</v>
       </c>
       <c r="D12" t="n">
-        <v>42.137</v>
+        <v>93.65300000000001</v>
       </c>
       <c r="E12" t="n">
-        <v>-60.096</v>
+        <v>-4.42</v>
       </c>
       <c r="F12" t="n">
-        <v>-46.18</v>
+        <v>-59.783</v>
       </c>
       <c r="G12" t="n">
-        <v>50.142</v>
+        <v>2.428</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>[[ 0.95  ]
- [-0.35  ]
- [-0.278 ]
- [ 0.    ]
- [ 1.5708]
- [-0.    ]]</t>
+          <t>[[ 0.8   ]
+ [ 0.25  ]
+ [-0.278 ]
+ [ 0.    ]
+ [ 1.5708]
+ [ 0.    ]]</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>1.885</v>
+        <v>2.968</v>
       </c>
       <c r="J12" t="n">
-        <v>1.497</v>
+        <v>1.329</v>
       </c>
       <c r="K12" t="n">
-        <v>1.887</v>
+        <v>6.243</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1.752</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2.017</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.726</v>
       </c>
     </row>
     <row r="13">
@@ -957,41 +1071,50 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>-13.627</v>
+        <v>-23.808</v>
       </c>
       <c r="C13" t="n">
-        <v>65.489</v>
+        <v>70.405</v>
       </c>
       <c r="D13" t="n">
-        <v>61.696</v>
+        <v>52.109</v>
       </c>
       <c r="E13" t="n">
-        <v>-170.014</v>
+        <v>-7.628</v>
       </c>
       <c r="F13" t="n">
-        <v>35.969</v>
+        <v>-32.746</v>
       </c>
       <c r="G13" t="n">
-        <v>171.864</v>
+        <v>6.424</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
           <t>[[ 0.95  ]
- [-0.2   ]
- [-0.278 ]
- [ 0.    ]
- [ 1.5708]
- [ 0.0002]]</t>
+ [-0.35  ]
+ [-0.278 ]
+ [ 0.    ]
+ [ 1.5708]
+ [ 0.    ]]</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>2.567</v>
+        <v>3.29</v>
       </c>
       <c r="J13" t="n">
-        <v>1.497</v>
+        <v>0.642</v>
       </c>
       <c r="K13" t="n">
-        <v>5.718</v>
+        <v>10.199</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1.892</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2.302</v>
+      </c>
+      <c r="N13" t="n">
+        <v>2.209</v>
       </c>
     </row>
     <row r="14">
@@ -999,41 +1122,50 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>-19.374</v>
+        <v>-15.34</v>
       </c>
       <c r="C14" t="n">
-        <v>85.371</v>
+        <v>65.03</v>
       </c>
       <c r="D14" t="n">
-        <v>24.349</v>
+        <v>63.601</v>
       </c>
       <c r="E14" t="n">
-        <v>99.06100000000001</v>
+        <v>-4.36</v>
       </c>
       <c r="F14" t="n">
-        <v>82.58</v>
+        <v>-38.713</v>
       </c>
       <c r="G14" t="n">
-        <v>-110.595</v>
+        <v>3.407</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
           <t>[[ 0.95  ]
- [-0.05  ]
- [-0.278 ]
- [ 0.    ]
- [ 1.5708]
- [ 0.0005]]</t>
+ [-0.2   ]
+ [-0.278 ]
+ [ 0.    ]
+ [ 1.5708]
+ [ 0.    ]]</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>2.271</v>
+        <v>3.326</v>
       </c>
       <c r="J14" t="n">
-        <v>4.423</v>
+        <v>0.761</v>
       </c>
       <c r="K14" t="n">
-        <v>5.106</v>
+        <v>9.260999999999999</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1.862</v>
+      </c>
+      <c r="M14" t="n">
+        <v>2.159</v>
+      </c>
+      <c r="N14" t="n">
+        <v>1.742</v>
       </c>
     </row>
     <row r="15">
@@ -1041,41 +1173,50 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>-10.691</v>
+        <v>-6.366</v>
       </c>
       <c r="C15" t="n">
-        <v>95.797</v>
+        <v>62.836</v>
       </c>
       <c r="D15" t="n">
-        <v>3.941</v>
+        <v>68.711</v>
       </c>
       <c r="E15" t="n">
-        <v>-261.592</v>
+        <v>-2.013</v>
       </c>
       <c r="F15" t="n">
-        <v>85.227</v>
+        <v>-41.553</v>
       </c>
       <c r="G15" t="n">
-        <v>-99.98699999999999</v>
+        <v>1.461</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
           <t>[[ 0.95  ]
- [ 0.1   ]
- [-0.278 ]
- [ 0.    ]
- [ 1.5708]
- [ 0.0007]]</t>
+ [-0.05  ]
+ [-0.278 ]
+ [ 0.    ]
+ [ 1.5708]
+ [ 0.    ]]</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>4.009</v>
+        <v>3.263</v>
       </c>
       <c r="J15" t="n">
-        <v>3.253</v>
+        <v>1.016</v>
       </c>
       <c r="K15" t="n">
-        <v>4.088</v>
+        <v>8.816000000000001</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1.886</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2.106</v>
+      </c>
+      <c r="N15" t="n">
+        <v>1.535</v>
       </c>
     </row>
     <row r="16">
@@ -1083,41 +1224,101 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.454</v>
+        <v>2.661</v>
       </c>
       <c r="C16" t="n">
-        <v>98.849</v>
+        <v>63.242</v>
       </c>
       <c r="D16" t="n">
-        <v>-4.136</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="E16" t="n">
-        <v>-265.002</v>
+        <v>-2.078</v>
       </c>
       <c r="F16" t="n">
-        <v>75.688</v>
+        <v>-41.795</v>
       </c>
       <c r="G16" t="n">
-        <v>-95.518</v>
+        <v>1.54</v>
       </c>
       <c r="H16" t="inlineStr">
+        <is>
+          <t>[[ 0.95  ]
+ [ 0.1   ]
+ [-0.278 ]
+ [ 0.    ]
+ [ 1.5708]
+ [ 0.    ]]</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
+        <v>3.096</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1.311</v>
+      </c>
+      <c r="K16" t="n">
+        <v>8.897</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1.936</v>
+      </c>
+      <c r="M16" t="n">
+        <v>2.063</v>
+      </c>
+      <c r="N16" t="n">
+        <v>1.542</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>11.195</v>
+      </c>
+      <c r="C17" t="n">
+        <v>66.235</v>
+      </c>
+      <c r="D17" t="n">
+        <v>63.033</v>
+      </c>
+      <c r="E17" t="n">
+        <v>-4.127</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-42.07</v>
+      </c>
+      <c r="G17" t="n">
+        <v>3.145</v>
+      </c>
+      <c r="H17" t="inlineStr">
         <is>
           <t>[[ 0.95  ]
  [ 0.25  ]
  [-0.278 ]
  [ 0.    ]
  [ 1.5708]
- [ 0.0007]]</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
-        <v>4.353</v>
-      </c>
-      <c r="J16" t="n">
-        <v>2.898</v>
-      </c>
-      <c r="K16" t="n">
-        <v>4.448</v>
+ [ 0.    ]]</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
+        <v>2.847</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1.552</v>
+      </c>
+      <c r="K17" t="n">
+        <v>9.314</v>
+      </c>
+      <c r="L17" t="n">
+        <v>2.059</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.975</v>
+      </c>
+      <c r="N17" t="n">
+        <v>1.458</v>
       </c>
     </row>
   </sheetData>

--- a/conven_control/optimized_result.xlsx
+++ b/conven_control/optimized_result.xlsx
@@ -116,7 +116,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -139,13 +139,6 @@
       <name val="Arial"/>
       <family val="0"/>
     </font>
-    <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <name val="Cambria"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -155,19 +148,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -196,13 +182,9 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -224,8 +206,8 @@
   </sheetPr>
   <dimension ref="A1:N16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K21" activeCellId="0" sqref="K21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L24" activeCellId="0" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -233,51 +215,51 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.53"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="0" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>0</v>
       </c>
@@ -321,7 +303,7 @@
         <v>1.844</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
         <v>1</v>
       </c>
@@ -365,7 +347,7 @@
         <v>1.758</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
         <v>2</v>
       </c>
@@ -409,7 +391,7 @@
         <v>1.999</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
         <v>3</v>
       </c>
@@ -453,7 +435,7 @@
         <v>1.743</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
         <v>4</v>
       </c>
@@ -497,7 +479,7 @@
         <v>1.504</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
         <v>5</v>
       </c>
@@ -541,7 +523,7 @@
         <v>1.282</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
         <v>6</v>
       </c>
@@ -585,7 +567,7 @@
         <v>1.163</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
         <v>7</v>
       </c>
@@ -629,7 +611,7 @@
         <v>1.132</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
         <v>8</v>
       </c>
@@ -673,7 +655,7 @@
         <v>0.945</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
         <v>9</v>
       </c>
@@ -717,7 +699,7 @@
         <v>0.771</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
         <v>10</v>
       </c>
@@ -761,7 +743,7 @@
         <v>2.253</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
         <v>11</v>
       </c>
@@ -805,7 +787,7 @@
         <v>1.743</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
         <v>12</v>
       </c>
@@ -849,7 +831,7 @@
         <v>1.537</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
         <v>13</v>
       </c>
@@ -893,7 +875,7 @@
         <v>1.546</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
         <v>14</v>
       </c>
@@ -939,7 +921,7 @@
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
